--- a/rider/weekly/2017_ 2.xlsx
+++ b/rider/weekly/2017_ 2.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>271</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>229</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>209</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>283</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>228.91</c:v>
+                  <c:v>232.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.91</c:v>
+                  <c:v>209.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.27</c:v>
+                  <c:v>195.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.5</c:v>
+                  <c:v>220.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234.55</c:v>
+                  <c:v>236.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.83</c:v>
+                  <c:v>117.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D2">
-        <v>228.91</v>
+        <v>232.55</v>
       </c>
       <c r="E2">
         <v>99.64</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>209.91</v>
+        <v>209.82</v>
       </c>
       <c r="E3">
         <v>99.8</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>210.27</v>
+        <v>195.73</v>
       </c>
       <c r="E4">
         <v>99.95999999999999</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D5">
-        <v>222.5</v>
+        <v>220.1</v>
       </c>
       <c r="E5">
         <v>100.12</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D6">
-        <v>234.55</v>
+        <v>236.55</v>
       </c>
       <c r="E6">
         <v>100.29</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D7">
-        <v>115.83</v>
+        <v>117.42</v>
       </c>
       <c r="E7">
         <v>100.45</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>101.5</v>
       </c>
       <c r="E8">
         <v>100.61</v>
